--- a/biology/Médecine/Syndrome_de_Pickwick/Syndrome_de_Pickwick.xlsx
+++ b/biology/Médecine/Syndrome_de_Pickwick/Syndrome_de_Pickwick.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le syndrome de Pickwick ou syndrome obésité-hypoventilation est une affection dans laquelle les individus obèses sont incapables de respirer assez rapidement et profondément, provoquant par conséquent un niveau faible de pression sanguine et un haut niveau de dioxyde de carbone (CO2 )(hypercapnie).
 </t>
@@ -511,9 +523,11 @@
           <t>Signes et symptômes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On distingue le syndrome de Pickwick et le syndrome d'apnée obstructive du sommeil. Dans le syndrome de Pickwick, il y a association[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On distingue le syndrome de Pickwick et le syndrome d'apnée obstructive du sommeil. Dans le syndrome de Pickwick, il y a association :
 d'une obésité majeure supérieure à 120 kg ;
 de trouble du sommeil avec apnée du sommeil ;
 d'une somnolence diurne marquée ;
@@ -547,10 +561,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le syndrome de Pickwick a été décrit en 1956 par C.S.Burwell et ses collaborateurs[1]. Ils comparent alors la maladie du personnage des romans de Dickens, au syndrome d'obésité extrême associée à l'hypoventilation alvéolaire auquel ils donnent le nom de syndrome pickwickien.
-En 1837, Dickens publie en feuilleton ce qui deviendra un roman publié sous le titre The Pickwick Papers (Les Papiers posthumes du Pickwick Club). Un des personnages de ce livre, prénommé Fat Joe, est le domestique de Mr Wardle, gentilhomme rural, propriétaire de Manor Farm à Dingley Dell. Dickens[2] le décrit comme une curiosité de la nature, un jeune garçon étonnamment gras, rougeaud, goinfre, mais surtout atteint d'une somnolence invincible, incontrôlable : à tout moment, même en parlant, il s'assoupit et se met à ronfler doucement, menton sur la poitrine[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le syndrome de Pickwick a été décrit en 1956 par C.S.Burwell et ses collaborateurs. Ils comparent alors la maladie du personnage des romans de Dickens, au syndrome d'obésité extrême associée à l'hypoventilation alvéolaire auquel ils donnent le nom de syndrome pickwickien.
+En 1837, Dickens publie en feuilleton ce qui deviendra un roman publié sous le titre The Pickwick Papers (Les Papiers posthumes du Pickwick Club). Un des personnages de ce livre, prénommé Fat Joe, est le domestique de Mr Wardle, gentilhomme rural, propriétaire de Manor Farm à Dingley Dell. Dickens le décrit comme une curiosité de la nature, un jeune garçon étonnamment gras, rougeaud, goinfre, mais surtout atteint d'une somnolence invincible, incontrôlable : à tout moment, même en parlant, il s'assoupit et se met à ronfler doucement, menton sur la poitrine.
 </t>
         </is>
       </c>
@@ -579,7 +595,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le traitement repose sur une perte de poids et la prise en charge des différentes conséquences du syndrome.
 </t>
